--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-10_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_01-10_end.xlsx
@@ -408,7 +408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Nearl"]  … I... Aaaagh...
+    <t xml:space="preserve">[name="Nearl"]  ... I... Aaaagh...
 </t>
   </si>
   <si>
@@ -424,7 +424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  …Ngh...
+    <t xml:space="preserve">[name="Amiya"]  ...Ngh...
 </t>
   </si>
   <si>
@@ -508,11 +508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  What about Ace and the others…?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="…",values="1")]
+    <t xml:space="preserve">[name="Amiya"]  What about Ace and the others...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="...",values="1")]
 </t>
   </si>
   <si>
